--- a/medicine/Sexualité et sexologie/Position_du_bateau_ivre/Position_du_bateau_ivre.xlsx
+++ b/medicine/Sexualité et sexologie/Position_du_bateau_ivre/Position_du_bateau_ivre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La position du bateau ivre est une position sexuelle proche de la position du missionnaire. Dans un rapport hétérosexuel, l’homme s’agenouille au bord du lit face à sa partenaire qui est couchée sur le dos. Il peut soulever légèrement les jambes de la femme (un coussin peut être placé sous les fesses), en les tenant par les chevilles et accomplit un mouvement de va-et-vient.
 Si cette position permet à l'homme de mieux voir la pénétration, et donc de mieux la maîtriser, elle exige d'avoir une bonne hauteur du couchage de la femme : si le lit n'a pas une hauteur adaptée à la longueur des cuisses de l'homme, celui-ci sera obligé de se mettre semi-debout. De plus, cette position ne laisse pas beaucoup d'amplitude de mouvements à la femme.
